--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65689C49-7B72-4503-9279-4051D777136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D3233-CF2E-42CE-A78E-0E90F479B642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B924DB76-0532-4312-A5CD-5D7D1BD34856}"/>
   </bookViews>
@@ -33,10 +33,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>barang_kode</t>
+  </si>
+  <si>
+    <t>barang_nama</t>
+  </si>
+  <si>
+    <t>harga_beli</t>
+  </si>
+  <si>
+    <t>harga_jual</t>
+  </si>
+  <si>
+    <t>SBK-003</t>
+  </si>
+  <si>
+    <t>Telur Omega (10 butir)</t>
+  </si>
+  <si>
+    <t>SNK-003</t>
+  </si>
+  <si>
+    <t>Sari Roti</t>
+  </si>
+  <si>
+    <t>MNN-003</t>
+  </si>
+  <si>
+    <t>Shampo Pantene</t>
+  </si>
+  <si>
+    <t>BAY-003</t>
+  </si>
+  <si>
+    <t>Baju Bayi 2th</t>
+  </si>
+  <si>
+    <t>MNM-003</t>
+  </si>
+  <si>
+    <t>Cleo 600ml</t>
+  </si>
+  <si>
+    <t>kategory_id</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +444,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574A91D8-0E73-455A-B5BC-91A6F631C0F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2">
+        <v>89000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>92500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3750</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4300</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>